--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792391.701174279</v>
+        <v>1790139.62146307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482786</v>
+        <v>78.961229153611</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>125.8006610335173</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>120.4263234899695</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067185</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699376</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>217.091419992848</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>79.03187764303425</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881291</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.294096136280567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>95.1271275682416</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>25.52471385612641</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583108</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>4.713266813875332e-12</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340466</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703289</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>18.70843787977355</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
-        <v>68.17501931583868</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.4636264596498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514041</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,16 +4325,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415546</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1615.697475415546</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835251</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894839</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288089</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898447</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002372</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452336</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875185</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899373</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624725</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179749</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197306</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>188.339194630123</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403937</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124868</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141636</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706335</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434716</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155647</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>550.921708803229</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.6143379232838</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171305</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892237</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768879</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944948</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>119.5992022965844</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>119.5992022965844</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>119.5992022965844</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.557557724336</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.873069518449</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1191.455899481488</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>963.4663485834708</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400735</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121666</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121666</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121666</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121666</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998295</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998295</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998295</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876697</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597628</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597628</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597628</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597628</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746428</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614396</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179095</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890283</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.11872044489</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684177</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7415,22 +7415,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856947</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.11969353038623</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>55.74112246243911</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683093337</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864789065</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392193994</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>146.8157004124953</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
-        <v>72.11969353038518</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.36835372228748</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.4369174006907</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320151</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
@@ -26329,31 +26329,31 @@
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,16 +26433,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26454,10 +26454,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137882</v>
+        <v>-975269.3345137883</v>
       </c>
       <c r="C6" t="n">
-        <v>353475.4112138042</v>
+        <v>353475.4112138043</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.411213804</v>
+        <v>353475.4112138043</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.1550476488</v>
+        <v>104647.4171222133</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.6168550044</v>
+        <v>430059.8789295685</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.616855004</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295681</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550039</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="J6" t="n">
-        <v>212563.4144577266</v>
+        <v>212528.676532291</v>
       </c>
       <c r="K6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295684</v>
       </c>
       <c r="L6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="M6" t="n">
-        <v>345039.5889194923</v>
+        <v>345004.8509940567</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295681</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.6168550043</v>
+        <v>430059.8789295684</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550039</v>
+        <v>430059.8789295685</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112257</v>
+        <v>307.2767095024426</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>126.3369822903107</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.2833318990677</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554333</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803267</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>331.8898480104192</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748378</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>338.6542681503481</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,34 +34211,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118745</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>391.6051949514482</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0580237059037</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572999003</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396399</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.3607779320003</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>253.050815171574</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
